--- a/examples/raw/var_dict.xlsx
+++ b/examples/raw/var_dict.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78fea0453942dc16/Programming/AnomDetect/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78fea0453942dc16/Programming/AnomDetect/examples/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{7606BECD-15E3-4670-A0C7-402D50F8E7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEF2B2E9-3510-4CE7-BA32-B00C2DB28925}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="8_{7606BECD-15E3-4670-A0C7-402D50F8E7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8D1F703-8FAA-4CFD-8430-F7064EC278A8}"/>
   <bookViews>
-    <workbookView xWindow="38550" yWindow="1980" windowWidth="21285" windowHeight="11385" xr2:uid="{4FC6386F-9796-4EBC-B3A7-3AED9B759A9F}"/>
+    <workbookView xWindow="3585" yWindow="1455" windowWidth="21285" windowHeight="11385" xr2:uid="{4FC6386F-9796-4EBC-B3A7-3AED9B759A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$28</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
   <si>
     <t>file</t>
   </si>
@@ -68,9 +71,6 @@
     <t>D12</t>
   </si>
   <si>
-    <t>fx</t>
-  </si>
-  <si>
     <t>LN</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
     <t>UNRATE.xls</t>
   </si>
   <si>
-    <t>UNEMP</t>
-  </si>
-  <si>
     <t>INDPRO.xls</t>
   </si>
   <si>
@@ -128,10 +125,28 @@
     <t>LRUN64TTJPM156S.xls</t>
   </si>
   <si>
-    <t>HSI.xlsx</t>
-  </si>
-  <si>
     <t>N225.xlsx</t>
+  </si>
+  <si>
+    <t>GSPTSE.xlsx</t>
+  </si>
+  <si>
+    <t>DEXCAUS.xls</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>LRUNTTTTCAM156S.xls</t>
+  </si>
+  <si>
+    <t>FTSE100.xlsx</t>
+  </si>
+  <si>
+    <t>WSJ</t>
+  </si>
+  <si>
+    <t>unemp</t>
   </si>
 </sst>
 </file>
@@ -489,10 +504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74E11FC-1D10-4155-BAF7-8FDA785FC303}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -520,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -543,7 +559,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -566,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -589,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -606,18 +622,15 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -629,21 +642,21 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -652,38 +665,38 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -695,151 +708,464 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G28" xr:uid="{D74E11FC-1D10-4155-BAF7-8FDA785FC303}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
